--- a/poc.xlsx
+++ b/poc.xlsx
@@ -129,9 +129,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="0" xfId="0" applyBorder="1" applyFont="1"/>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
@@ -389,461 +392,466 @@
     <col customWidth="1" min="4" max="16" width="9.57"/>
   </cols>
   <sheetData>
+    <row r="2">
+      <c r="D2" s="1">
+        <v>1.23456789E9</v>
+      </c>
+    </row>
     <row r="5">
-      <c r="C5" s="1"/>
-      <c r="D5" s="2">
+      <c r="C5" s="2"/>
+      <c r="D5" s="3">
         <v>44209.0</v>
       </c>
-      <c r="E5" s="2">
+      <c r="E5" s="3">
         <v>44210.0</v>
       </c>
-      <c r="F5" s="2">
+      <c r="F5" s="3">
         <v>44211.0</v>
       </c>
-      <c r="G5" s="2">
+      <c r="G5" s="3">
         <v>44214.0</v>
       </c>
-      <c r="H5" s="2">
+      <c r="H5" s="3">
         <v>44215.0</v>
       </c>
-      <c r="I5" s="2">
+      <c r="I5" s="3">
         <v>44216.0</v>
       </c>
-      <c r="J5" s="2">
+      <c r="J5" s="3">
         <v>44217.0</v>
       </c>
-      <c r="K5" s="2">
+      <c r="K5" s="3">
         <v>44218.0</v>
       </c>
-      <c r="L5" s="2">
+      <c r="L5" s="3">
         <v>44221.0</v>
       </c>
-      <c r="M5" s="2">
+      <c r="M5" s="3">
         <v>44222.0</v>
       </c>
-      <c r="N5" s="2">
+      <c r="N5" s="3">
         <v>44223.0</v>
       </c>
-      <c r="O5" s="2">
+      <c r="O5" s="3">
         <v>44224.0</v>
       </c>
-      <c r="P5" s="2">
+      <c r="P5" s="3">
         <v>44225.0</v>
       </c>
-      <c r="Q5" s="2">
+      <c r="Q5" s="3">
         <v>44228.0</v>
       </c>
-      <c r="R5" s="2">
+      <c r="R5" s="3">
         <v>44229.0</v>
       </c>
-      <c r="S5" s="2">
+      <c r="S5" s="3">
         <v>44230.0</v>
       </c>
-      <c r="T5" s="2">
+      <c r="T5" s="3">
         <v>44231.0</v>
       </c>
-      <c r="U5" s="2">
+      <c r="U5" s="3">
         <v>44232.0</v>
       </c>
-      <c r="V5" s="2">
+      <c r="V5" s="3">
         <v>44244.0</v>
       </c>
-      <c r="W5" s="2">
+      <c r="W5" s="3">
         <v>44245.0</v>
       </c>
-      <c r="X5" s="2">
+      <c r="X5" s="3">
         <v>44246.0</v>
       </c>
-      <c r="Y5" s="2">
+      <c r="Y5" s="3">
         <v>44247.0</v>
       </c>
-      <c r="Z5" s="2">
+      <c r="Z5" s="3">
         <v>44249.0</v>
       </c>
-      <c r="AA5" s="2">
+      <c r="AA5" s="3">
         <v>44250.0</v>
       </c>
-      <c r="AB5" s="2">
+      <c r="AB5" s="3">
         <v>44251.0</v>
       </c>
-      <c r="AC5" s="2">
+      <c r="AC5" s="3">
         <v>44252.0</v>
       </c>
-      <c r="AD5" s="2">
+      <c r="AD5" s="3">
         <v>44253.0</v>
       </c>
-      <c r="AE5" s="2">
+      <c r="AE5" s="3">
         <v>44256.0</v>
       </c>
-      <c r="AF5" s="2">
+      <c r="AF5" s="3">
         <v>44257.0</v>
       </c>
-      <c r="AG5" s="2">
+      <c r="AG5" s="3">
         <v>44258.0</v>
       </c>
-      <c r="AH5" s="2">
+      <c r="AH5" s="3">
         <v>44259.0</v>
       </c>
-      <c r="AI5" s="2">
+      <c r="AI5" s="3">
         <v>44260.0</v>
       </c>
-      <c r="AJ5" s="2">
+      <c r="AJ5" s="3">
         <v>44263.0</v>
       </c>
-      <c r="AK5" s="2">
+      <c r="AK5" s="3">
         <v>44264.0</v>
       </c>
-      <c r="AL5" s="2">
+      <c r="AL5" s="3">
         <v>44265.0</v>
       </c>
-      <c r="AM5" s="2">
+      <c r="AM5" s="3">
         <v>44266.0</v>
       </c>
-      <c r="AN5" s="2">
+      <c r="AN5" s="3">
         <v>44267.0</v>
       </c>
-      <c r="AO5" s="2">
+      <c r="AO5" s="3">
         <v>44270.0</v>
       </c>
-      <c r="AP5" s="2">
+      <c r="AP5" s="3">
         <v>44271.0</v>
       </c>
-      <c r="AQ5" s="2">
+      <c r="AQ5" s="3">
         <v>44272.0</v>
       </c>
-      <c r="AR5" s="2">
+      <c r="AR5" s="3">
         <v>44273.0</v>
       </c>
-      <c r="AS5" s="2">
+      <c r="AS5" s="3">
         <v>44274.0</v>
       </c>
-      <c r="AT5" s="3"/>
-      <c r="AU5" s="3"/>
-      <c r="AV5" s="3"/>
-      <c r="AW5" s="3"/>
-      <c r="AX5" s="3"/>
-      <c r="AY5" s="3"/>
-      <c r="AZ5" s="3"/>
-      <c r="BA5" s="3"/>
-      <c r="BB5" s="3"/>
-      <c r="BC5" s="3"/>
-      <c r="BD5" s="3"/>
-      <c r="BE5" s="3"/>
-      <c r="BF5" s="3"/>
-      <c r="BG5" s="3"/>
-      <c r="BH5" s="3"/>
-      <c r="BI5" s="3"/>
-      <c r="BJ5" s="3"/>
-      <c r="BK5" s="3"/>
-      <c r="BL5" s="3"/>
-      <c r="BM5" s="3"/>
-      <c r="BN5" s="3"/>
-      <c r="BO5" s="3"/>
-      <c r="BP5" s="3"/>
-      <c r="BQ5" s="3"/>
-      <c r="BR5" s="3"/>
-      <c r="BS5" s="3"/>
-      <c r="BT5" s="3"/>
-      <c r="BU5" s="3"/>
-      <c r="BV5" s="3"/>
-      <c r="BW5" s="3"/>
-      <c r="BX5" s="3"/>
-      <c r="BY5" s="3"/>
-      <c r="BZ5" s="3"/>
-      <c r="CA5" s="3"/>
-      <c r="CB5" s="3"/>
-      <c r="CC5" s="3"/>
-      <c r="CD5" s="3"/>
-      <c r="CE5" s="3"/>
-      <c r="CF5" s="3"/>
-      <c r="CG5" s="3"/>
-      <c r="CH5" s="3"/>
-      <c r="CI5" s="3"/>
-      <c r="CJ5" s="3"/>
-      <c r="CK5" s="3"/>
-      <c r="CL5" s="3"/>
+      <c r="AT5" s="4"/>
+      <c r="AU5" s="4"/>
+      <c r="AV5" s="4"/>
+      <c r="AW5" s="4"/>
+      <c r="AX5" s="4"/>
+      <c r="AY5" s="4"/>
+      <c r="AZ5" s="4"/>
+      <c r="BA5" s="4"/>
+      <c r="BB5" s="4"/>
+      <c r="BC5" s="4"/>
+      <c r="BD5" s="4"/>
+      <c r="BE5" s="4"/>
+      <c r="BF5" s="4"/>
+      <c r="BG5" s="4"/>
+      <c r="BH5" s="4"/>
+      <c r="BI5" s="4"/>
+      <c r="BJ5" s="4"/>
+      <c r="BK5" s="4"/>
+      <c r="BL5" s="4"/>
+      <c r="BM5" s="4"/>
+      <c r="BN5" s="4"/>
+      <c r="BO5" s="4"/>
+      <c r="BP5" s="4"/>
+      <c r="BQ5" s="4"/>
+      <c r="BR5" s="4"/>
+      <c r="BS5" s="4"/>
+      <c r="BT5" s="4"/>
+      <c r="BU5" s="4"/>
+      <c r="BV5" s="4"/>
+      <c r="BW5" s="4"/>
+      <c r="BX5" s="4"/>
+      <c r="BY5" s="4"/>
+      <c r="BZ5" s="4"/>
+      <c r="CA5" s="4"/>
+      <c r="CB5" s="4"/>
+      <c r="CC5" s="4"/>
+      <c r="CD5" s="4"/>
+      <c r="CE5" s="4"/>
+      <c r="CF5" s="4"/>
+      <c r="CG5" s="4"/>
+      <c r="CH5" s="4"/>
+      <c r="CI5" s="4"/>
+      <c r="CJ5" s="4"/>
+      <c r="CK5" s="4"/>
+      <c r="CL5" s="4"/>
     </row>
     <row r="6">
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="6"/>
-      <c r="K6" s="6"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-      <c r="AG6" s="1"/>
-      <c r="AH6" s="1"/>
-      <c r="AI6" s="1"/>
-      <c r="AJ6" s="1"/>
-      <c r="AK6" s="1"/>
-      <c r="AL6" s="1"/>
-      <c r="AM6" s="1"/>
-      <c r="AN6" s="1"/>
-      <c r="AO6" s="1"/>
-      <c r="AP6" s="1"/>
-      <c r="AQ6" s="1"/>
-      <c r="AR6" s="1"/>
-      <c r="AS6" s="1"/>
+      <c r="D6" s="6"/>
+      <c r="E6" s="7"/>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+      <c r="I6" s="7"/>
+      <c r="J6" s="7"/>
+      <c r="K6" s="7"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="2"/>
+      <c r="N6" s="2"/>
+      <c r="O6" s="2"/>
+      <c r="P6" s="2"/>
+      <c r="Q6" s="2"/>
+      <c r="R6" s="2"/>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="2"/>
+      <c r="X6" s="2"/>
+      <c r="Y6" s="2"/>
+      <c r="Z6" s="2"/>
+      <c r="AA6" s="2"/>
+      <c r="AB6" s="2"/>
+      <c r="AC6" s="2"/>
+      <c r="AD6" s="2"/>
+      <c r="AE6" s="2"/>
+      <c r="AF6" s="2"/>
+      <c r="AG6" s="2"/>
+      <c r="AH6" s="2"/>
+      <c r="AI6" s="2"/>
+      <c r="AJ6" s="2"/>
+      <c r="AK6" s="2"/>
+      <c r="AL6" s="2"/>
+      <c r="AM6" s="2"/>
+      <c r="AN6" s="2"/>
+      <c r="AO6" s="2"/>
+      <c r="AP6" s="2"/>
+      <c r="AQ6" s="2"/>
+      <c r="AR6" s="2"/>
+      <c r="AS6" s="2"/>
     </row>
     <row r="7">
-      <c r="C7" s="7" t="s">
+      <c r="C7" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="8"/>
-      <c r="P7" s="8"/>
-      <c r="Q7" s="8"/>
-      <c r="R7" s="8"/>
-      <c r="S7" s="8"/>
-      <c r="T7" s="8"/>
-      <c r="U7" s="8"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-      <c r="AG7" s="1"/>
-      <c r="AH7" s="1"/>
-      <c r="AI7" s="1"/>
-      <c r="AJ7" s="1"/>
-      <c r="AK7" s="1"/>
-      <c r="AL7" s="1"/>
-      <c r="AM7" s="1"/>
-      <c r="AN7" s="1"/>
-      <c r="AO7" s="1"/>
-      <c r="AP7" s="1"/>
-      <c r="AQ7" s="1"/>
-      <c r="AR7" s="1"/>
-      <c r="AS7" s="1"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="J7" s="2"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="2"/>
+      <c r="X7" s="2"/>
+      <c r="Y7" s="2"/>
+      <c r="Z7" s="2"/>
+      <c r="AA7" s="2"/>
+      <c r="AB7" s="2"/>
+      <c r="AC7" s="2"/>
+      <c r="AD7" s="2"/>
+      <c r="AE7" s="2"/>
+      <c r="AF7" s="2"/>
+      <c r="AG7" s="2"/>
+      <c r="AH7" s="2"/>
+      <c r="AI7" s="2"/>
+      <c r="AJ7" s="2"/>
+      <c r="AK7" s="2"/>
+      <c r="AL7" s="2"/>
+      <c r="AM7" s="2"/>
+      <c r="AN7" s="2"/>
+      <c r="AO7" s="2"/>
+      <c r="AP7" s="2"/>
+      <c r="AQ7" s="2"/>
+      <c r="AR7" s="2"/>
+      <c r="AS7" s="2"/>
     </row>
     <row r="8">
-      <c r="C8" s="9" t="s">
+      <c r="C8" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-      <c r="AG8" s="1"/>
-      <c r="AH8" s="1"/>
-      <c r="AI8" s="1"/>
-      <c r="AJ8" s="1"/>
-      <c r="AK8" s="1"/>
-      <c r="AL8" s="1"/>
-      <c r="AM8" s="1"/>
-      <c r="AN8" s="1"/>
-      <c r="AO8" s="1"/>
-      <c r="AP8" s="1"/>
-      <c r="AQ8" s="1"/>
-      <c r="AR8" s="1"/>
-      <c r="AS8" s="1"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="2"/>
+      <c r="N8" s="2"/>
+      <c r="O8" s="2"/>
+      <c r="P8" s="2"/>
+      <c r="Q8" s="2"/>
+      <c r="R8" s="2"/>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="11"/>
+      <c r="W8" s="11"/>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="11"/>
+      <c r="Z8" s="11"/>
+      <c r="AA8" s="2"/>
+      <c r="AB8" s="2"/>
+      <c r="AC8" s="2"/>
+      <c r="AD8" s="2"/>
+      <c r="AE8" s="2"/>
+      <c r="AF8" s="2"/>
+      <c r="AG8" s="2"/>
+      <c r="AH8" s="2"/>
+      <c r="AI8" s="2"/>
+      <c r="AJ8" s="2"/>
+      <c r="AK8" s="2"/>
+      <c r="AL8" s="2"/>
+      <c r="AM8" s="2"/>
+      <c r="AN8" s="2"/>
+      <c r="AO8" s="2"/>
+      <c r="AP8" s="2"/>
+      <c r="AQ8" s="2"/>
+      <c r="AR8" s="2"/>
+      <c r="AS8" s="2"/>
     </row>
     <row r="9">
-      <c r="C9" s="11" t="s">
+      <c r="C9" s="12" t="s">
         <v>3</v>
       </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="13"/>
-      <c r="AA9" s="13"/>
-      <c r="AB9" s="13"/>
-      <c r="AC9" s="13"/>
-      <c r="AD9" s="13"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-      <c r="AG9" s="1"/>
-      <c r="AH9" s="1"/>
-      <c r="AI9" s="1"/>
-      <c r="AJ9" s="1"/>
-      <c r="AK9" s="1"/>
-      <c r="AL9" s="1"/>
-      <c r="AM9" s="1"/>
-      <c r="AN9" s="1"/>
-      <c r="AO9" s="1"/>
-      <c r="AP9" s="1"/>
-      <c r="AQ9" s="1"/>
-      <c r="AR9" s="1"/>
-      <c r="AS9" s="1"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
+      <c r="H9" s="2"/>
+      <c r="I9" s="2"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
+      <c r="R9" s="2"/>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="13"/>
+      <c r="W9" s="13"/>
+      <c r="X9" s="13"/>
+      <c r="Y9" s="13"/>
+      <c r="Z9" s="14"/>
+      <c r="AA9" s="14"/>
+      <c r="AB9" s="14"/>
+      <c r="AC9" s="14"/>
+      <c r="AD9" s="14"/>
+      <c r="AE9" s="2"/>
+      <c r="AF9" s="2"/>
+      <c r="AG9" s="2"/>
+      <c r="AH9" s="2"/>
+      <c r="AI9" s="2"/>
+      <c r="AJ9" s="2"/>
+      <c r="AK9" s="2"/>
+      <c r="AL9" s="2"/>
+      <c r="AM9" s="2"/>
+      <c r="AN9" s="2"/>
+      <c r="AO9" s="2"/>
+      <c r="AP9" s="2"/>
+      <c r="AQ9" s="2"/>
+      <c r="AR9" s="2"/>
+      <c r="AS9" s="2"/>
     </row>
     <row r="10">
-      <c r="C10" s="14" t="s">
+      <c r="C10" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="15"/>
-      <c r="AB10" s="15"/>
-      <c r="AC10" s="15"/>
-      <c r="AD10" s="15"/>
-      <c r="AE10" s="15"/>
-      <c r="AF10" s="15"/>
-      <c r="AG10" s="15"/>
-      <c r="AH10" s="15"/>
-      <c r="AI10" s="1"/>
-      <c r="AJ10" s="1"/>
-      <c r="AK10" s="1"/>
-      <c r="AL10" s="1"/>
-      <c r="AM10" s="1"/>
-      <c r="AN10" s="1"/>
-      <c r="AO10" s="1"/>
-      <c r="AP10" s="1"/>
-      <c r="AQ10" s="1"/>
-      <c r="AR10" s="1"/>
-      <c r="AS10" s="1"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
+      <c r="H10" s="2"/>
+      <c r="I10" s="2"/>
+      <c r="J10" s="2"/>
+      <c r="K10" s="2"/>
+      <c r="L10" s="2"/>
+      <c r="M10" s="2"/>
+      <c r="N10" s="2"/>
+      <c r="O10" s="2"/>
+      <c r="P10" s="2"/>
+      <c r="Q10" s="2"/>
+      <c r="R10" s="2"/>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="2"/>
+      <c r="X10" s="2"/>
+      <c r="Y10" s="2"/>
+      <c r="Z10" s="2"/>
+      <c r="AA10" s="16"/>
+      <c r="AB10" s="16"/>
+      <c r="AC10" s="16"/>
+      <c r="AD10" s="16"/>
+      <c r="AE10" s="16"/>
+      <c r="AF10" s="16"/>
+      <c r="AG10" s="16"/>
+      <c r="AH10" s="16"/>
+      <c r="AI10" s="2"/>
+      <c r="AJ10" s="2"/>
+      <c r="AK10" s="2"/>
+      <c r="AL10" s="2"/>
+      <c r="AM10" s="2"/>
+      <c r="AN10" s="2"/>
+      <c r="AO10" s="2"/>
+      <c r="AP10" s="2"/>
+      <c r="AQ10" s="2"/>
+      <c r="AR10" s="2"/>
+      <c r="AS10" s="2"/>
     </row>
     <row r="11">
-      <c r="C11" s="16" t="s">
+      <c r="C11" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="17"/>
-      <c r="AF11" s="17"/>
-      <c r="AG11" s="17"/>
-      <c r="AH11" s="17"/>
-      <c r="AI11" s="17"/>
-      <c r="AJ11" s="17"/>
-      <c r="AK11" s="17"/>
-      <c r="AL11" s="17"/>
-      <c r="AM11" s="1"/>
-      <c r="AN11" s="1"/>
-      <c r="AO11" s="1"/>
-      <c r="AP11" s="1"/>
-      <c r="AQ11" s="1"/>
-      <c r="AR11" s="1"/>
-      <c r="AS11" s="1"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
+      <c r="H11" s="2"/>
+      <c r="I11" s="2"/>
+      <c r="J11" s="2"/>
+      <c r="K11" s="2"/>
+      <c r="L11" s="2"/>
+      <c r="M11" s="2"/>
+      <c r="N11" s="2"/>
+      <c r="O11" s="2"/>
+      <c r="P11" s="2"/>
+      <c r="Q11" s="2"/>
+      <c r="R11" s="2"/>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="2"/>
+      <c r="X11" s="2"/>
+      <c r="Y11" s="2"/>
+      <c r="Z11" s="2"/>
+      <c r="AA11" s="2"/>
+      <c r="AB11" s="2"/>
+      <c r="AC11" s="2"/>
+      <c r="AD11" s="2"/>
+      <c r="AE11" s="18"/>
+      <c r="AF11" s="18"/>
+      <c r="AG11" s="18"/>
+      <c r="AH11" s="18"/>
+      <c r="AI11" s="18"/>
+      <c r="AJ11" s="18"/>
+      <c r="AK11" s="18"/>
+      <c r="AL11" s="18"/>
+      <c r="AM11" s="2"/>
+      <c r="AN11" s="2"/>
+      <c r="AO11" s="2"/>
+      <c r="AP11" s="2"/>
+      <c r="AQ11" s="2"/>
+      <c r="AR11" s="2"/>
+      <c r="AS11" s="2"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
